--- a/TemperatureData/GilbrookRes02/0902.xlsx
+++ b/TemperatureData/GilbrookRes02/0902.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/FieldWork2022/HoboLoggerData/GilbrookRes2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\GilbrookRes02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05043C32-42D7-4F45-BCF1-541D7E1A00CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13250669-4EBF-4841-B051-E6B5D3CCEE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0902" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Plot Title: 21422108</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422108)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger was placed in Gilbrook Forest Reservoir 2</t>
   </si>
   <si>
@@ -70,11 +67,14 @@
   <si>
     <t>#Logger was retreived 08/01/2022 at 4:36 P.M.</t>
   </si>
+  <si>
+    <t>#All data after this date/time were deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,9 +614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -654,7 +654,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -760,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -902,17 +902,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3189"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3156" workbookViewId="0">
+      <selection activeCell="A3197" sqref="A3190:XFD3197"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45501,7 +45503,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3185">
         <v>3183</v>
       </c>
@@ -45515,7 +45517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3186">
         <v>3184</v>
       </c>
@@ -45529,7 +45531,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3187">
         <v>3185</v>
       </c>
@@ -45543,7 +45545,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3188">
         <v>3186</v>
       </c>
@@ -45557,7 +45559,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3189">
         <v>3187</v>
       </c>
@@ -45569,106 +45571,6 @@
       </c>
       <c r="D3189">
         <v>200</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3190">
-        <v>3188</v>
-      </c>
-      <c r="B3190" s="1">
-        <v>44774.697916666664</v>
-      </c>
-      <c r="C3190">
-        <v>87.915000000000006</v>
-      </c>
-      <c r="D3190">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3191">
-        <v>3189</v>
-      </c>
-      <c r="B3191" s="1">
-        <v>44774.708333333336</v>
-      </c>
-      <c r="C3191">
-        <v>89.569000000000003</v>
-      </c>
-      <c r="D3191">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3192">
-        <v>3190</v>
-      </c>
-      <c r="B3192" s="1">
-        <v>44774.71875</v>
-      </c>
-      <c r="C3192">
-        <v>79.325999999999993</v>
-      </c>
-      <c r="D3192">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3193">
-        <v>3191</v>
-      </c>
-      <c r="B3193" s="1">
-        <v>44774.724282407406</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3194">
-        <v>3192</v>
-      </c>
-      <c r="B3194" s="1">
-        <v>44774.724710648145</v>
-      </c>
-      <c r="F3194" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3195">
-        <v>3193</v>
-      </c>
-      <c r="B3195" s="1">
-        <v>44774.724768518521</v>
-      </c>
-      <c r="G3195" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3196">
-        <v>3194</v>
-      </c>
-      <c r="B3196" s="1">
-        <v>44774.724780092591</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3197">
-        <v>3195</v>
-      </c>
-      <c r="B3197" s="1">
-        <v>44774.724918981483</v>
-      </c>
-      <c r="H3197" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3197" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -45677,37 +45579,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -45944,15 +45851,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -45963,14 +45861,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672914FC-15AF-4366-8F81-14055A93E326}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672914FC-15AF-4366-8F81-14055A93E326}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3F86BB-ABC2-4D28-83A5-85788B5A63F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B15CFD1-1CD2-446E-BEE6-B11F4805A82E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B15CFD1-1CD2-446E-BEE6-B11F4805A82E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3F86BB-ABC2-4D28-83A5-85788B5A63F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>